--- a/map_code1.xlsx
+++ b/map_code1.xlsx
@@ -64,7 +64,7 @@
     <t>Azerbaijan</t>
   </si>
   <si>
-    <t>Bahamas, The</t>
+    <t>Bahamas</t>
   </si>
   <si>
     <t>Bahrain</t>
@@ -157,10 +157,10 @@
     <t>Comoros</t>
   </si>
   <si>
-    <t>Congo, Democratic Republic of the</t>
-  </si>
-  <si>
-    <t>Congo, Republic of the</t>
+    <t>Congo (Kinshasa)</t>
+  </si>
+  <si>
+    <t>Congo (Brazzaville)</t>
   </si>
   <si>
     <t>Cook Islands</t>
@@ -184,7 +184,7 @@
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Czech Republic</t>
+    <t>Czechia</t>
   </si>
   <si>
     <t>Denmark</t>
@@ -241,7 +241,7 @@
     <t>Gabon</t>
   </si>
   <si>
-    <t>Gambia, The</t>
+    <t>Gambia</t>
   </si>
   <si>
     <t>Georgia</t>
@@ -595,7 +595,7 @@
     <t>Suriname</t>
   </si>
   <si>
-    <t>Swaziland</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Sweden</t>
@@ -607,7 +607,7 @@
     <t>Syria</t>
   </si>
   <si>
-    <t>Taiwan</t>
+    <t>Taiwan*</t>
   </si>
   <si>
     <t>Tajikistan</t>
@@ -655,7 +655,7 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>US</t>
   </si>
   <si>
     <t>Uruguay</t>
@@ -676,7 +676,7 @@
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>West Bank</t>
+    <t>West Bank and Gaza</t>
   </si>
   <si>
     <t>Yemen</t>
